--- a/CB-G4.xlsx
+++ b/CB-G4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI-Last Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A2B42-499D-BA4D-A6E6-B0A0DF010A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D71C4-2E91-354D-BF6A-896110EA988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5240" yWindow="-21100" windowWidth="19200" windowHeight="20080" xr2:uid="{5C1DA0EF-DDA5-2847-86F3-0A7BFDE74C91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{5C1DA0EF-DDA5-2847-86F3-0A7BFDE74C91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>57.437534246575311</v>
+        <v>45.809999999999988</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>79.192123287671251</v>
+        <v>78.753243243243261</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>78.314315068493158</v>
+        <v>40.321891891891902</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>62.591780821917794</v>
+        <v>45.048648648648651</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>67.28184931506847</v>
+        <v>73.475405405405425</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>57.555205479452049</v>
+        <v>37.51864864864865</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>39.9272602739726</v>
+        <v>20.896216216216217</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>48.351506849315072</v>
+        <v>55.215405405405392</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>69.628424657534254</v>
+        <v>63.169459459459461</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>91.716164383561647</v>
+        <v>94.769189189189191</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>42.351575342465743</v>
+        <v>41.127297297297297</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>50.754589041095898</v>
+        <v>42.199189189189184</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>70.103287671232906</v>
+        <v>66.148918918918909</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>51.328424657534264</v>
+        <v>19.186486486486491</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -756,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>50.394863013698661</v>
+        <v>17.313243243243242</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
